--- a/documentation/List of models.xlsx
+++ b/documentation/List of models.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Slava\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Slava\Documents\kineticsim_reader\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA83C9D-8DD5-4A78-A662-162B1DDBD013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4062C2F-C912-4604-9CBF-8C51F1F560E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>Available models (names)</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>fields.d10_pv2av2_rdna0.03375_128x3_iden0eps1e-4_dx0.75_t6000</t>
+  </si>
+  <si>
+    <t>particles.d11_pv2av2.3_128x3_iden0eps1e-4_dx0.75</t>
   </si>
 </sst>
 </file>
@@ -200,7 +203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -209,6 +212,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -493,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,7 +764,9 @@
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="3"/>
+      <c r="B17" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="C17" s="2">
         <v>4</v>
       </c>

--- a/documentation/List of models.xlsx
+++ b/documentation/List of models.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Slava\Documents\kineticsim_reader\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4062C2F-C912-4604-9CBF-8C51F1F560E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F07C27B-99E0-4EEF-B8D2-13CD6494A3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -203,7 +203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -212,9 +212,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -500,7 +497,7 @@
   <dimension ref="B2:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,7 +761,7 @@
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C17" s="2">

--- a/documentation/List of models.xlsx
+++ b/documentation/List of models.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Slava\Documents\kineticsim_reader\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F07C27B-99E0-4EEF-B8D2-13CD6494A3D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF7A932E-D618-41B1-85A9-7EC9B2DC16CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
   <si>
     <t>Available models (names)</t>
   </si>
@@ -133,6 +133,30 @@
   </si>
   <si>
     <t>particles.d11_pv2av2.3_128x3_iden0eps1e-4_dx0.75</t>
+  </si>
+  <si>
+    <t>particles.d11_vap1.2Ap1Aa0.75_rdna_0.05</t>
+  </si>
+  <si>
+    <t>particles.d11_vap1.2Ap3.35Aa2.05rdna_0.007</t>
+  </si>
+  <si>
+    <t>particles.d11_vap1.5Ap1.5Aa1rdna_0.007</t>
+  </si>
+  <si>
+    <t>fields.d10_vap1.2Ap1Aa0.75_rdna_0.05</t>
+  </si>
+  <si>
+    <t>fields.d10_vap1.2Ap3.35Aa2.05rdna_0.007</t>
+  </si>
+  <si>
+    <t>fields.d10_vap1.5Ap1.5Aa1rdna_0.007</t>
+  </si>
+  <si>
+    <t>HYB2D FILE</t>
+  </si>
+  <si>
+    <t>+</t>
   </si>
 </sst>
 </file>
@@ -203,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -212,6 +236,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -494,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F17"/>
+  <dimension ref="B2:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,9 +535,10 @@
     <col min="2" max="2" width="64.42578125" customWidth="1"/>
     <col min="4" max="5" width="14.140625" customWidth="1"/>
     <col min="6" max="6" width="64" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -523,8 +554,11 @@
       <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
@@ -540,8 +574,11 @@
       <c r="F3" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
@@ -557,8 +594,11 @@
       <c r="F4" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
@@ -574,8 +614,11 @@
       <c r="F5" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
@@ -591,8 +634,11 @@
       <c r="F6" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
@@ -608,8 +654,11 @@
       <c r="F7" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
@@ -625,8 +674,11 @@
       <c r="F8" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
@@ -642,8 +694,11 @@
       <c r="F9" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
@@ -659,8 +714,11 @@
       <c r="F10" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>15</v>
       </c>
@@ -674,8 +732,11 @@
         <v>1</v>
       </c>
       <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>16</v>
       </c>
@@ -691,8 +752,11 @@
       <c r="F12" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>17</v>
       </c>
@@ -708,8 +772,11 @@
       <c r="F13" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>18</v>
       </c>
@@ -725,8 +792,11 @@
       <c r="F14" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>19</v>
       </c>
@@ -742,8 +812,11 @@
       <c r="F15" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>20</v>
       </c>
@@ -759,8 +832,11 @@
       <c r="F16" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>35</v>
       </c>
@@ -775,6 +851,51 @@
       </c>
       <c r="F17" s="2" t="s">
         <v>33</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/List of models.xlsx
+++ b/documentation/List of models.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Slava\Documents\kineticsim_reader\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF7A932E-D618-41B1-85A9-7EC9B2DC16CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4AE070F-416D-4383-85BF-5CABC29FD447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -227,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -239,9 +239,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -527,7 +524,7 @@
   <dimension ref="B2:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -857,13 +854,19 @@
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="5" t="s">
+      <c r="C18" s="2">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G18" s="4" t="s">
@@ -871,13 +874,19 @@
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="5" t="s">
+      <c r="C19" s="2">
+        <v>2</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>40</v>
       </c>
       <c r="G19" s="4" t="s">
@@ -885,13 +894,19 @@
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="5" t="s">
+      <c r="C20" s="2">
+        <v>2</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>41</v>
       </c>
       <c r="G20" s="4" t="s">

--- a/documentation/List of models.xlsx
+++ b/documentation/List of models.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Slava\Documents\kineticsim_reader\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4AE070F-416D-4383-85BF-5CABC29FD447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF36BA91-613D-4A21-A29B-588DCDE3D3E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="210" yWindow="2865" windowWidth="27855" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -524,7 +524,7 @@
   <dimension ref="B2:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
